--- a/medicine/Enfance/Ana_María_Matute/Ana_María_Matute.xlsx
+++ b/medicine/Enfance/Ana_María_Matute/Ana_María_Matute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana_Mar%C3%ADa_Matute</t>
+          <t>Ana_María_Matute</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ana María Matute, née le 26 juillet 1925 à Barcelone, où elle meurt le 25 juin 2014[1], est une écrivaine espagnole appartenant à la Génération de 50.
-Elle a reçu de nombreux prix, notamment le Prix national de Littérature infantile et juvénile en 1984, le Prix national des Lettres espagnoles en 2007[2] et le Prix Cervantes en 2010[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ana María Matute, née le 26 juillet 1925 à Barcelone, où elle meurt le 25 juin 2014, est une écrivaine espagnole appartenant à la Génération de 50.
+Elle a reçu de nombreux prix, notamment le Prix national de Littérature infantile et juvénile en 1984, le Prix national des Lettres espagnoles en 2007 et le Prix Cervantes en 2010.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana_Mar%C3%ADa_Matute</t>
+          <t>Ana_María_Matute</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la deuxième des cinq enfants d'une famille de la petite bourgeoisie catalane, conservatrice et religieuse. Sa mère était hispanophone et son père catalanophone, propriétaire d'une usine de parapluies. Née à Barcelone, elle y passe une enfance marquée par la Guerre civile espagnole, ce qui se reflétera dans son œuvre littéraire, centrée sur « les petits garçons étonnés » qui observent malgré eux et cherchent à comprendre la déraison qui les entoure.
 Elle commence une carrière littéraire précoce et prolifique avec Los Abel en 1948, finaliste du Prix Nadal.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana_Mar%C3%ADa_Matute</t>
+          <t>Ana_María_Matute</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Los Abel (1948)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Los Abel (1948)
 Fiesta al Noroeste (1952) — Premio Café Gijón Publié en français sous le titre Fête au Nord-Ouest, traduit par Elena de La Souchère, Paris, Éditions Gallimard, coll. « Du monde entier », 1961, 173 pages (BNF 33093925)
 Pequeño teatro (1954) — Prix Planeta Publié en français sous le titre Marionnettes, traduit par Maurice-Edgar Coindreau, Paris, Éditions Gallimard, coll. « Du monde entier », 1963, 261 pages (BNF 33093933) ; réédition, Paris, Gallimard, coll. « L'Étrangère », 1992, 257 pages  (ISBN 2-07-072603-7)
 En esta tierra (1955) — Prix des critiquesVersion censurée de Luciérnagas, publié dans sa version complète seulement en 1993.
@@ -566,12 +585,80 @@
 Le Passager clandestin (1994)
 Olvidado rey Gudú (1996)
 Aranmanoth (2000)
-Paraíso inhabitado (2009)[4] Publié en français sous le titre Paradis inhabité, traduit par Marie-Odile Fortier-Masek, Paris, Éditions Phébus, coll. « Littérature étrangère », 2011, 283 pages  (ISBN 978-2-7529-0490-4) ; réédition, Paris, 10/18, coll. « Domaine étranger » no 4692, 2014, 352 pages  (ISBN 978-2-264-05733-4). Il a été au programme du CAPES d'espagnol en 2018 et 2019.
-Recueils de nouvelles
-El tiempo (1957) Publié en français sous le titre Le Temps, traduit par Jean-Francis Reille, Paris, Éditions Gallimard, coll. « Du monde entier », 1960, 263 pages (BNF 33093939) ; réédition, Paris, Gallimard, coll. « L'Imaginaire » no 580, 2009, 200 pages  (ISBN 978-2-07-012442-8)
-La Virgen de Antioquía y otros relatos (1990)
-Contes pour enfants
-Paulina, el mundo y las estrellas (1956) Publié en français sous le titre Nin, Paulina et les lumières dans la montagne, traduit par Anne Sablié, illustrations par Patrice Harispe, Paris, Nathan, coll. « Bibliothèque internationale » no 14 1971, 192 pages (BNF 35141893)
+Paraíso inhabitado (2009) Publié en français sous le titre Paradis inhabité, traduit par Marie-Odile Fortier-Masek, Paris, Éditions Phébus, coll. « Littérature étrangère », 2011, 283 pages  (ISBN 978-2-7529-0490-4) ; réédition, Paris, 10/18, coll. « Domaine étranger » no 4692, 2014, 352 pages  (ISBN 978-2-264-05733-4). Il a été au programme du CAPES d'espagnol en 2018 et 2019.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ana_María_Matute</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ana_Mar%C3%ADa_Matute</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>El tiempo (1957) Publié en français sous le titre Le Temps, traduit par Jean-Francis Reille, Paris, Éditions Gallimard, coll. « Du monde entier », 1960, 263 pages (BNF 33093939) ; réédition, Paris, Gallimard, coll. « L'Imaginaire » no 580, 2009, 200 pages  (ISBN 978-2-07-012442-8)
+La Virgen de Antioquía y otros relatos (1990)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ana_María_Matute</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ana_Mar%C3%ADa_Matute</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Contes pour enfants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Paulina, el mundo y las estrellas (1956) Publié en français sous le titre Nin, Paulina et les lumières dans la montagne, traduit par Anne Sablié, illustrations par Patrice Harispe, Paris, Nathan, coll. « Bibliothèque internationale » no 14 1971, 192 pages (BNF 35141893)
 El país de la pizarra (1956) Publié en français sous le titre Le Pays de l'ardoise, traduit par Madeleine Gilard, Paris, La Farandole/Messidor, coll. « 8 9 10 », 1982, 52 pages  (ISBN 2-7047-0257-8)
 Caballito loco (1961)
 El polizón del Ulises (1965) — Premio Lazarillo Publié en français sous le titre Le Passager clandestin, traduit par Madeleine Gilard, illustrations par Évelyne Noviant, Paris, Éditions La Farandole, coll. « 1000 épisodes », 1973, 157 pages (BNF 35141460)
@@ -581,62 +668,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ana_Mar%C3%ADa_Matute</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ana_María_Matute</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ana_Mar%C3%ADa_Matute</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Traductions de contes isolés en français</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le Criquet d'or  (trad. Antoinette Bloch et Marcelle Vérité), Bruxelles, illustrations par Colette Fovel, Éditions Casterman, 1963, 62 p. (BNF 33093936)
 Les Enfants idiots  (trad. de l'espagnol par François Maspero), Paris, illustrations par Javier Olivares, Éditions Sarbacane, 2004, 115 p. (ISBN 2-84865-032-X)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ana_Mar%C3%ADa_Matute</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ana_María_Matute</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ana_Mar%C3%ADa_Matute</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Accessit au Prix Nadal, 1947, pour Los Abel.
 Prix Café Gijón, 1952, pour Fiesta al Noroeste.
@@ -646,22 +737,22 @@
 Prix Nadal, 1959, pour Primera Memoria.
 Prix Fastenrath de l'Académie royale espagnole, 1962, pour Los soldados lloran de noche.
 Prix Lazarillo de la littérature pour les enfants, 1965, pour El polizón de Ulises.
-(international) « Hightly Commended Authors » 1970[5], par l' IBBY, pour l'ensemble de son œuvre
-(international) « Hightly Commended Authors » 1972[5], par l' IBBY, pour l'ensemble de son œuvre
+(international) « Hightly Commended Authors » 1970, par l' IBBY, pour l'ensemble de son œuvre
+(international) « Hightly Commended Authors » 1972, par l' IBBY, pour l'ensemble de son œuvre
 Ministère de Culture. Livre d'intérêt de littérature d'enfance et de jeunesse, 1976.
 Prix national de Littérature infantile et juvénile, 1984, pour Sólo un pie descalzo.
 Prix de la ville de Barcelone de Littérature en langue castillane, 1995, pour El verdadero final de la Bella durmiente.
-Médaille d'or du mérite des beaux-arts par le Ministère de l'Éducation, de la Culture et des Sports en 1995[6].
-Prix Ojo Crítico Especial, 1997, pour Olvidado Rey Gudú[7].
+Médaille d'or du mérite des beaux-arts par le Ministère de l'Éducation, de la Culture et des Sports en 1995.
+Prix Ojo Crítico Especial, 1997, pour Olvidado Rey Gudú.
 Prix de la ville d'Alcalá des Arts et des Lettres, 2001.
-Médaille d'Or du Círculo de Bellas Artes en 2005[8]
+Médaille d'Or du Círculo de Bellas Artes en 2005
 Prix International Terenci Moix, 2006.
 Prix national des Lettres espagnoles, 2007.
 Creu de Sant Jordi, 2009.
 Finaliste du prix Prince des Asturies, 2010.
-Prix Cervantes, 2010[9]
-Prix de la Critique de la Foire du livre de Bilbao, 2011[10]
-Prix Ondas Mediterráneas Mención Especial RIET, 2012[11].</t>
+Prix Cervantes, 2010
+Prix de la Critique de la Foire du livre de Bilbao, 2011
+Prix Ondas Mediterráneas Mención Especial RIET, 2012.</t>
         </is>
       </c>
     </row>
